--- a/Documents/LibraryMS_Dev_Tracker.xlsx
+++ b/Documents/LibraryMS_Dev_Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace_Bw6\Library Management System\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\POC\LIbraryManagementSystem\GitRepo\LibraryManagementSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAB0133-C0CE-4611-831B-F7382392AFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350065A7-5732-4F0D-A1DD-9628726389C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9F2A38AB-A549-4CED-850A-27544C7FEB54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Sno</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>QA-Testing</t>
+  </si>
+  <si>
+    <t>processes</t>
+  </si>
+  <si>
+    <t>Unit Testing and Deploy</t>
+  </si>
+  <si>
+    <t>Dev Testing</t>
+  </si>
+  <si>
+    <t>31-Apr-23</t>
+  </si>
+  <si>
+    <t>Application Development</t>
   </si>
 </sst>
 </file>
@@ -426,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F87DA-8C9F-4DB9-9EEA-388D9DD4BF0E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,7 +462,9 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
@@ -462,62 +479,189 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
         <v>44998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45019</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3">
         <v>45026</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D23" s="3">
         <v>45028</v>
       </c>
     </row>
